--- a/public/avance.xlsx
+++ b/public/avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\satech-migrate\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D674A-33A5-4BFF-AFD8-466358547EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F07336-E7AE-4262-9A5F-F0064D22EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE0CB39-D342-409D-A525-7A4C5BFDC37D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>mlopez@gptservices.com</t>
   </si>
@@ -81,13 +81,163 @@
   </si>
   <si>
     <t>jrlara@gptservices.com</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico</t>
+  </si>
+  <si>
+    <t>mjimenez@gptservices.com</t>
+  </si>
+  <si>
+    <t>mquintanar@gptservices.com</t>
+  </si>
+  <si>
+    <t>igonzalez@gptservices.com</t>
+  </si>
+  <si>
+    <t>jmartinez@gptservices.com</t>
+  </si>
+  <si>
+    <t>aramirezp@gptservices.com</t>
+  </si>
+  <si>
+    <t>yrcolina@gptservices.com</t>
+  </si>
+  <si>
+    <t>asalgadoz@gptservices.com</t>
+  </si>
+  <si>
+    <t>kperez@gptservices.com</t>
+  </si>
+  <si>
+    <t>agonzalezh@gptservices.com</t>
+  </si>
+  <si>
+    <t>haviles@gptservices.com</t>
+  </si>
+  <si>
+    <t>fzamora@gptservices.com</t>
+  </si>
+  <si>
+    <t>mariosc@gptservices.com</t>
+  </si>
+  <si>
+    <t>arodriguez@gptservices.com</t>
+  </si>
+  <si>
+    <t>fluna@gptservices.com</t>
+  </si>
+  <si>
+    <t>jmartinezj@gptservices.com</t>
+  </si>
+  <si>
+    <t>sramirez@gptservices.com</t>
+  </si>
+  <si>
+    <t>oalvarado@gptservices.com</t>
+  </si>
+  <si>
+    <t>fbutron@gptservices.com</t>
+  </si>
+  <si>
+    <t>febasavea@gptservices.com</t>
+  </si>
+  <si>
+    <t>emoreno@gptservices.com</t>
+  </si>
+  <si>
+    <t>ebautista@gptservices.com</t>
+  </si>
+  <si>
+    <t>mmartinez@gptservices.com</t>
+  </si>
+  <si>
+    <t>pvazquez@gptservices.com</t>
+  </si>
+  <si>
+    <t>ggutierrezm@gptservices.com</t>
+  </si>
+  <si>
+    <t>rrojasg@gptservices.com</t>
+  </si>
+  <si>
+    <t>jsantos@gptservices.com</t>
+  </si>
+  <si>
+    <t>sulloat@gptservices.com</t>
+  </si>
+  <si>
+    <t>jcardona@gptservices.com</t>
+  </si>
+  <si>
+    <t>cgomez@gptservices.com</t>
+  </si>
+  <si>
+    <t>rajimeneza@gptservices.com</t>
+  </si>
+  <si>
+    <t>jhernandez@gptservices.com</t>
+  </si>
+  <si>
+    <t>iponcer@gptservices.com</t>
+  </si>
+  <si>
+    <t>cperez@gptservices.com</t>
+  </si>
+  <si>
+    <t>alopeza@gptservices.com</t>
+  </si>
+  <si>
+    <t>teemogusanito1@gmail.com</t>
+  </si>
+  <si>
+    <t>ccarbajal@gptservices.com</t>
+  </si>
+  <si>
+    <t>dnunez@gptservices.com</t>
+  </si>
+  <si>
+    <t>rrodriguezg@gptservices.com</t>
+  </si>
+  <si>
+    <t>imora@gptservices.com</t>
+  </si>
+  <si>
+    <t>evillafranca@gptservices.com</t>
+  </si>
+  <si>
+    <t>lgodinez@gptservices.com</t>
+  </si>
+  <si>
+    <t>jjimenezc@gptservices.com</t>
+  </si>
+  <si>
+    <t>lparedes@gptservices.com</t>
+  </si>
+  <si>
+    <t>eorduna@gptservices.com</t>
+  </si>
+  <si>
+    <t>vigilanciagpt@gptservices.com</t>
+  </si>
+  <si>
+    <t>edlopezo@gptservices.com</t>
+  </si>
+  <si>
+    <t>mpaess@gptservices.com</t>
+  </si>
+  <si>
+    <t>jlazaro@gptservices.com</t>
+  </si>
+  <si>
+    <t>rgarciaa@gptservices.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +250,19 @@
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,28 +281,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B3F86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -189,23 +341,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69DE24F-5233-414E-9D6E-A2F64D893E75}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,82 +737,648 @@
     <col min="1" max="1" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/avance.xlsx
+++ b/public/avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\satech-migrate\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F07336-E7AE-4262-9A5F-F0064D22EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739CDF2F-E49B-4C77-A84E-98B091C92AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE0CB39-D342-409D-A525-7A4C5BFDC37D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>mlopez@gptservices.com</t>
   </si>
@@ -173,21 +173,12 @@
     <t>cgomez@gptservices.com</t>
   </si>
   <si>
-    <t>rajimeneza@gptservices.com</t>
-  </si>
-  <si>
-    <t>jhernandez@gptservices.com</t>
-  </si>
-  <si>
     <t>iponcer@gptservices.com</t>
   </si>
   <si>
     <t>cperez@gptservices.com</t>
   </si>
   <si>
-    <t>alopeza@gptservices.com</t>
-  </si>
-  <si>
     <t>teemogusanito1@gmail.com</t>
   </si>
   <si>
@@ -231,6 +222,30 @@
   </si>
   <si>
     <t>rgarciaa@gptservices.com</t>
+  </si>
+  <si>
+    <t>acruzb@gptservices.com</t>
+  </si>
+  <si>
+    <t>lreyesy@gptservices.com</t>
+  </si>
+  <si>
+    <t>ihernandez@gptservices.com</t>
+  </si>
+  <si>
+    <t>rgonzalezm@gptservices.com</t>
+  </si>
+  <si>
+    <t>ajmartinezs@gptservices.com</t>
+  </si>
+  <si>
+    <t>mosorio@gptservices.com</t>
+  </si>
+  <si>
+    <t>fcontreras@gptservices.com</t>
+  </si>
+  <si>
+    <t>jbecerray@gptservices.com</t>
   </si>
 </sst>
 </file>
@@ -288,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -371,11 +386,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -391,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +762,7 @@
   <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,23 +776,23 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -769,42 +802,42 @@
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -819,77 +852,77 @@
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,7 +932,7 @@
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -924,12 +957,12 @@
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -969,131 +1002,143 @@
     </row>
     <row r="47" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-    </row>
     <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
+      <c r="A70" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
+      <c r="A72" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
+      <c r="A74" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>

--- a/public/avance.xlsx
+++ b/public/avance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\satech-migrate\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739CDF2F-E49B-4C77-A84E-98B091C92AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4AFF4-63E1-4A85-8C3B-7226AEEB573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CAE0CB39-D342-409D-A525-7A4C5BFDC37D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>mlopez@gptservices.com</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>jbecerray@gptservices.com</t>
+  </si>
+  <si>
+    <t>emeza@gptservices.com</t>
+  </si>
+  <si>
+    <t>icorrea@gptservices.com</t>
+  </si>
+  <si>
+    <t>jprado@gptservices.com</t>
+  </si>
+  <si>
+    <t>jalejo@gptservices.com</t>
   </si>
 </sst>
 </file>
@@ -762,7 +774,7 @@
   <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,21 +1148,29 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+      <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
